--- a/TEST.xlsx
+++ b/TEST.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29711"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F9A0825-7F85-408A-8A24-6DACBC5EE816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{44DF5646-C69C-4CE4-AEB2-A8527BD13BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SIVA</t>
   </si>
   <si>
-    <t>MANASA</t>
-  </si>
-  <si>
     <t>BHARGAVI</t>
   </si>
   <si>
@@ -49,6 +46,15 @@
   </si>
   <si>
     <t>NANDU</t>
+  </si>
+  <si>
+    <t>CHITTI</t>
+  </si>
+  <si>
+    <t>NANDY</t>
+  </si>
+  <si>
+    <t>KONDA REDDY</t>
   </si>
 </sst>
 </file>
@@ -412,7 +418,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -427,29 +433,35 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4">
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
